--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3485.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3485.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173558874121336</v>
+        <v>0.7751099467277527</v>
       </c>
       <c r="B1">
-        <v>2.318659714279531</v>
+        <v>3.109837770462036</v>
       </c>
       <c r="C1">
-        <v>7.592306511226867</v>
+        <v>3.709166288375854</v>
       </c>
       <c r="D1">
-        <v>2.903322726684209</v>
+        <v>3.048982858657837</v>
       </c>
       <c r="E1">
-        <v>1.437576643009495</v>
+        <v>1.811389684677124</v>
       </c>
     </row>
   </sheetData>
